--- a/ManageSYS/templates/质量/再造梗丝产品在线评测报告.xlsx
+++ b/ManageSYS/templates/质量/再造梗丝产品在线评测报告.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>评分：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -32,14 +32,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工艺段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>得分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>工艺点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -61,6 +53,10 @@
   </si>
   <si>
     <t>再造梗丝产品在线评测报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工艺段(得分）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -73,22 +69,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -107,7 +100,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -139,15 +132,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -454,75 +498,72 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="13.125" customWidth="1"/>
-    <col min="3" max="3" width="16.75" customWidth="1"/>
-    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="A1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -532,7 +573,6 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
@@ -541,7 +581,6 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
@@ -550,7 +589,6 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
@@ -559,7 +597,6 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
@@ -568,7 +605,6 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
@@ -577,7 +613,6 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
@@ -586,7 +621,6 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
@@ -595,7 +629,6 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
@@ -604,7 +637,6 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
@@ -613,7 +645,6 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
@@ -622,7 +653,6 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
@@ -631,101 +661,94 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+  <mergeCells count="5">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ManageSYS/templates/质量/再造梗丝产品在线评测报告.xlsx
+++ b/ManageSYS/templates/质量/再造梗丝产品在线评测报告.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>评分：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -24,14 +24,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>班组：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检测日期：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>工艺点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -57,6 +49,10 @@
   </si>
   <si>
     <t>工艺段(得分）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测月份：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -86,7 +82,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,6 +92,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -124,18 +126,20 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -143,17 +147,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -164,6 +157,15 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -173,25 +175,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -495,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F3"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -511,62 +521,59 @@
     <col min="6" max="6" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
       <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -574,7 +581,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -582,7 +589,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -590,7 +597,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -598,7 +605,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -606,7 +613,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -614,7 +621,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -622,7 +629,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -630,7 +637,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -638,7 +645,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -646,7 +653,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -654,7 +661,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -743,12 +750,11 @@
       <c r="F26" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B3:C3"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ManageSYS/templates/质量/再造梗丝产品在线评测报告.xlsx
+++ b/ManageSYS/templates/质量/再造梗丝产品在线评测报告.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1F3860-063E-4D8D-8132-D5B4B5552CA8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="在线评测" sheetId="1" r:id="rId1"/>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -71,6 +72,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -78,6 +80,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -175,11 +178,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -203,6 +203,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -213,6 +225,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -261,7 +276,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -294,9 +309,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -329,6 +361,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -504,250 +553,250 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F4" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.125" customWidth="1"/>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
-    <col min="3" max="3" width="11.25" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="6" max="6" width="12.25" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="12" customWidth="1"/>
+    <col min="4" max="4" width="12" style="12" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="1" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
